--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>data processing</t>
-  </si>
-  <si>
     <t>RNA-Seq</t>
   </si>
   <si>
@@ -95,19 +92,25 @@
     <t>mandatory</t>
   </si>
   <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0008896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C47925</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0008896</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
-  </si>
-  <si>
     <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
   <si>
     <t>AUTHORS</t>
@@ -732,7 +735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -742,109 +745,112 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -860,237 +866,237 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>Computational Analysis</t>
-  </si>
-  <si>
     <t>mandatory</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C47925</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C61298</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
@@ -732,17 +732,20 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
@@ -752,6 +755,9 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
+  </si>
+  <si>
+    <t>B73 RefGen_v4</t>
+  </si>
+  <si>
+    <t>Read count extraction and normalization were performed using CLC genomic benchwork</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
 </sst>
 </file>
@@ -289,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:O5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:O5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:O2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:O2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -867,7 +876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -934,7 +943,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -943,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
@@ -952,7 +961,7 @@
         <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
         <v>71</v>
@@ -961,147 +970,6 @@
         <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
+  </si>
+  <si>
+    <t>computation.txt</t>
   </si>
   <si>
     <t>B73 RefGen_v4</t>
@@ -940,10 +943,10 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -952,7 +955,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
@@ -961,7 +964,7 @@
         <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
         <v>71</v>

--- a/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
+++ b/templates/dataplant/GEO/GEO_-_High-throughput_sequencing_-_Computational_analysis.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -206,13 +206,13 @@
     <t>Term Accession Number (NCIT:C164815)</t>
   </si>
   <si>
-    <t>Parameter [data processing action]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000543)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000543)</t>
+    <t>Parameter [Data Processing]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C47925)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C47925)</t>
   </si>
   <si>
     <t>Parameter [processed data file format]</t>
@@ -224,7 +224,7 @@
     <t>Term Accession Number (DPBO:0000027)</t>
   </si>
   <si>
-    <t>Output [Derived Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -233,7 +233,7 @@
     <t>data processing protocol</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000178</t>
   </si>
   <si>
     <t>computation.txt</t>
@@ -242,7 +242,7 @@
     <t>B73 RefGen_v4</t>
   </si>
   <si>
-    <t>Read count extraction and normalization were performed using CLC genomic benchwork</t>
+    <t>Read count extraction and normalization were performed using CLC genomic benchwor</t>
   </si>
   <si>
     <t>txt</t>
@@ -328,13 +328,13 @@
     <tableColumn id="6" name="Parameter [Genome Assembly Version]" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Source REF (NCIT:C164815)" totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Accession Number (NCIT:C164815)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Parameter [data processing action]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (MS:1000543)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (MS:1000543)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Parameter [Data Processing]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Source REF (NCIT:C47925)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Accession Number (NCIT:C47925)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Parameter [processed data file format]" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Source REF (DPBO:0000027)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Term Accession Number (DPBO:0000027)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Output [Derived Data File]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
